--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1511700.680041935</v>
+        <v>1554571.608492284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903706</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7817136.059695607</v>
+        <v>8063733.725978204</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>337.0717223854663</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -668,7 +670,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>181.5448872019592</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -710,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50.63388649156</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>241.5358326967056</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>236.3355868204054</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>69.90798579419391</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.45099468012255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>187.4453585027449</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1142,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>398.6248860420494</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>377.1216231871071</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>52.93214283165837</v>
+        <v>224.508595795419</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>326.9802541280293</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.9568991155872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>332.5360661902055</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1819,7 +1821,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>227.5041307701016</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2065,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.9383353088699</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.6176331076333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2086,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2299,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>227.6174841871675</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>26.85123909916863</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>81.1549583480613</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>197.3419125928199</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2846,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>158.3449400448986</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2953,16 +2955,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>206.2273198392498</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.0313569259916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.89026429995027</v>
       </c>
       <c r="U34" t="n">
-        <v>85.68764026526576</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>364.054132580644</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>48.20649381210165</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>130.6999290412336</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>245.2379843596716</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3673,10 +3675,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.6804894878781</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>231.455100963169</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>16.33987388702593</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>8.522152635936354</v>
       </c>
       <c r="V43" t="n">
-        <v>38.60758992810561</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3983,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>32.74069120500511</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.3301804530832</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>6.290917238643778</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.9945609524824</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>326.9067396299002</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>326.4832137633648</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>316.1834023206656</v>
       </c>
       <c r="F2" t="n">
         <v>132.8047283792926</v>
@@ -4328,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>176.0078249962696</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.152413668882</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.152413668882</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>911.2157406169719</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4415,16 @@
         <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>675.1644281008383</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.4091265223246</v>
+        <v>592.1650041644873</v>
       </c>
       <c r="C4" t="n">
-        <v>676.4091265223246</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="D4" t="n">
-        <v>516.9144818452346</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0036667135541</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4522,16 +4524,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>1327.188393667921</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X4" t="n">
-        <v>1088.844531527604</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.108832916369</v>
+        <v>779.8647105585317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1825.013014115527</v>
+        <v>636.5689113792441</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.888423428797</v>
+        <v>226.4443206925142</v>
       </c>
       <c r="D5" t="n">
-        <v>1010.424493521858</v>
+        <v>226.0207948259788</v>
       </c>
       <c r="E5" t="n">
-        <v>596.0842780387543</v>
+        <v>215.7209833832796</v>
       </c>
       <c r="F5" t="n">
-        <v>357.3614630686478</v>
+        <v>198.7309753773712</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4604,13 +4606,13 @@
         <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.193789739612</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1831.193789739612</v>
+        <v>1046.790091043734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811262</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.5916838289277</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="C7" t="n">
-        <v>515.4983113906442</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="D7" t="n">
-        <v>356.0036667135541</v>
+        <v>395.6343672702064</v>
       </c>
       <c r="E7" t="n">
-        <v>356.0036667135541</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4756,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.365834796576</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>1099.027088834207</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>1099.027088834207</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.291390222972</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>863.4445812219433</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>449.10436573884</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1592.293889628578</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>2935.857269874341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811262</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>837.2844189208142</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.1648729196913</v>
+        <v>421.742223795061</v>
       </c>
       <c r="C10" t="n">
-        <v>684.1648729196913</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="D10" t="n">
-        <v>684.1648729196913</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="E10" t="n">
-        <v>523.2540577880108</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.032684864693</v>
+        <v>1116.975776254216</v>
       </c>
       <c r="U10" t="n">
-        <v>963.234537410817</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="V10" t="n">
-        <v>963.234537410817</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="W10" t="n">
-        <v>684.1648729196913</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="X10" t="n">
-        <v>684.1648729196913</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="Y10" t="n">
-        <v>684.1648729196913</v>
+        <v>609.4419301891054</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1304.816809144096</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>894.6922184573664</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>490.228288550427</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>75.88807306732367</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>75.88807306732367</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>75.88807306732367</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>730.3988389146983</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2115.974661860495</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>1715.037988808586</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2426.745299402218</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>2292.750228151164</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>2175.853070370556</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2055.360254362884</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>1946.400374545389</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>1839.410261859728</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>1768.663048895444</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>1940.727315078317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>1940.727315078317</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>2528.740670331759</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>2528.740670331759</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>2528.740670331759</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>3232.697760877654</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>3794.403653366184</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>3794.403653366184</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>3686.413643480493</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>3527.071779667501</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>3329.72096880572</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3116.009441798753</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>2902.776273535082</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>2726.450291673975</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>2567.048332037805</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1299.204877768161</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>889.0802870814309</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>484.6163571744915</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>484.6163571744915</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>484.6163571744915</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.125143816904</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.716543629142</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.035134620896</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.216151259514</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2110.36273048456</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1709.42605743265</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>268.7009306299569</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>268.7009306299569</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>1111.678011324524</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N15" t="n">
-        <v>1418.420178371929</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>811.2755967663099</v>
+        <v>966.8999348750533</v>
       </c>
       <c r="V16" t="n">
-        <v>537.3898517058319</v>
+        <v>693.0141898145753</v>
       </c>
       <c r="W16" t="n">
-        <v>258.3201872147063</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="X16" t="n">
-        <v>75.88807306732367</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.88807306732367</v>
+        <v>413.9445253234496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.5874612033629</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.429368843485</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V19" t="n">
-        <v>837.543623783007</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W19" t="n">
-        <v>558.4739592918813</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X19" t="n">
-        <v>558.4739592918813</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.5874612033629</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5835,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>640.0181946537314</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>640.0181946537314</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>578.280283388802</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C25" t="n">
-        <v>578.280283388802</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D25" t="n">
-        <v>418.7856387117121</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E25" t="n">
-        <v>257.8748235800315</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.971391551641</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V25" t="n">
-        <v>1082.085646491163</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W25" t="n">
-        <v>803.0159820000373</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X25" t="n">
-        <v>803.0159820000373</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y25" t="n">
-        <v>578.280283388802</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6303,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>687.3584049869771</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="C28" t="n">
-        <v>687.3584049869771</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="D28" t="n">
-        <v>687.3584049869771</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6415,19 +6417,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1111.429368843485</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>912.0941035982124</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>912.0941035982124</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>912.0941035982124</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y28" t="n">
-        <v>687.3584049869771</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6494,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3956.166337121209</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>3785.072964682925</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4368.601742126489</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4368.601742126489</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="V31" t="n">
-        <v>4368.601742126489</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W31" t="n">
-        <v>4368.601742126489</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X31" t="n">
-        <v>4368.601742126489</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>4143.866043515253</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6731,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3891.531821096053</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4390.520398086449</v>
+        <v>1324.826325745621</v>
       </c>
       <c r="U34" t="n">
-        <v>4303.967226101332</v>
+        <v>1042.028178291745</v>
       </c>
       <c r="V34" t="n">
-        <v>4303.967226101332</v>
+        <v>768.1424332312672</v>
       </c>
       <c r="W34" t="n">
-        <v>4303.967226101332</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X34" t="n">
-        <v>4303.967226101332</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y34" t="n">
-        <v>4079.231527490097</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>569.5961886367127</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="C37" t="n">
-        <v>569.5961886367127</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1015439596227</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>258.2831716793286</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1254.571728532997</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>980.6859834725187</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W37" t="n">
-        <v>701.6163189813931</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X37" t="n">
-        <v>569.5961886367127</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y37" t="n">
-        <v>569.5961886367127</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
         <v>179.5954603735497</v>
@@ -7211,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>738.0702958899483</v>
+        <v>3790.308655650302</v>
       </c>
       <c r="C40" t="n">
-        <v>566.9769234516648</v>
+        <v>3619.215283212019</v>
       </c>
       <c r="D40" t="n">
-        <v>407.4822787745749</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="E40" t="n">
-        <v>407.4822787745749</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="F40" t="n">
-        <v>242.8511528851661</v>
+        <v>3295.08951264552</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W40" t="n">
-        <v>1388.849563035545</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.505700895228</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="Y40" t="n">
-        <v>925.7700022839927</v>
+        <v>3790.308655650302</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1234.456496290856</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C41" t="n">
-        <v>824.3319056041261</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>807.8269824859181</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>807.8269824859181</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>386.7965704396057</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>546.964137021612</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1259.55553683385</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2035.874127825604</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2789.055144464222</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3432.686000881327</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1644.677675955345</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>405.7420961116391</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.719176806206</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.377268917824</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1048.875877472786</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="C43" t="n">
-        <v>877.7825050345029</v>
+        <v>3883.776074698686</v>
       </c>
       <c r="D43" t="n">
-        <v>718.2878603574129</v>
+        <v>3724.281430021596</v>
       </c>
       <c r="E43" t="n">
-        <v>557.3770452257323</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="F43" t="n">
-        <v>392.7459193363236</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G43" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U43" t="n">
-        <v>1605.286969688174</v>
+        <v>4328.755192197447</v>
       </c>
       <c r="V43" t="n">
-        <v>1566.289404104229</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="W43" t="n">
-        <v>1287.219739613103</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="X43" t="n">
-        <v>1048.875877472786</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.875877472786</v>
+        <v>4054.869447136969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1234.456496290856</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3319056041261</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>419.8679756971866</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>419.8679756971866</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>419.8679756971866</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>2830.018047703134</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>2446.257746838303</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.614349007255</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>1644.677675955345</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L45" t="n">
-        <v>405.7420961116391</v>
+        <v>3469.596718162561</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.719176806206</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.377268917824</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685.0264510585434</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="C46" t="n">
-        <v>685.0264510585434</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="D46" t="n">
-        <v>685.0264510585434</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="E46" t="n">
-        <v>524.1156359268629</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>359.4845100374541</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>192.2341189629975</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1605.286969688174</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.286969688174</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.217305197048</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X46" t="n">
-        <v>1087.873443056732</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="Y46" t="n">
-        <v>863.1377444454962</v>
+        <v>3405.093950857723</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8061,19 +8063,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1513772538822</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>363.7739143332567</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>269.754811036119</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901664</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848179</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>213.0119281015672</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>650.0674079052351</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>752.1609013342966</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.6228535942535</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>356.0091697870508</v>
       </c>
       <c r="N15" t="n">
-        <v>363.0339661689073</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>743.7439864875635</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9401,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>191.4271838211926</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>191.2399885596099</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>178.5117997957786</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>398.595458917175</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>346.553124795057</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10908,16 +10910,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>308.2177962252717</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>596.5640636445446</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11312,10 +11314,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>350.2933730188041</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>389.3004056737939</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>197.7527798381155</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>69.65670972470764</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>22.42553959831346</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23425,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23504,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>64.10089766253151</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23668,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>52.46603520923551</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300467</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>4.022088210043563</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.87070851748966</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>8.342939331745924</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>129.1276841407384</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>253.1189268801685</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24604,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>76.74473988225778</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.80497501705341</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>187.9942390719855</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>30.9259317938151</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>125.9388090533455</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>211.2629873331146</v>
       </c>
       <c r="U34" t="n">
-        <v>194.2825257140713</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>42.06483528720059</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>114.778320818413</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>105.2604944776799</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>4.897397675833872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,16 +25605,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>44.82386688304533</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>384.0794167208441</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="42">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>271.4480133434007</v>
       </c>
       <c r="V43" t="n">
-        <v>232.5392976817677</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>371.900310061091</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.492528877020732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26029,16 +26031,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>153.0107897417199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>739021.7400871606</v>
+        <v>756456.3861905166</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602772.6429849762</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602772.6429849762</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281288</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681653.6184281284</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281285</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681653.6184281288</v>
+        <v>681653.6184281285</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>602772.6429849762</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>602772.6429849763</v>
+        <v>681653.6184281285</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="C2" t="n">
         <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876336</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
-        <v>345789.2670112883</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>345789.2670112885</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="G2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="I2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="J2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="J2" t="n">
-        <v>391025.7011723766</v>
       </c>
       <c r="K2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="L2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="M2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="N2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="O2" t="n">
-        <v>345789.2670112882</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="P2" t="n">
-        <v>345789.2670112883</v>
+        <v>391025.7011723769</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193745.8212557931</v>
+        <v>193745.821255793</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>193745.8212557931</v>
+        <v>113911.0406229377</v>
       </c>
       <c r="E4" t="n">
-        <v>52706.77919267787</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>52706.77919267787</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>52706.77919267787</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>52706.77919267787</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5712.064960229058</v>
+        <v>5712.064960229152</v>
       </c>
       <c r="C6" t="n">
         <v>180667.574853343</v>
       </c>
       <c r="D6" t="n">
-        <v>180667.574853343</v>
+        <v>55042.88029942731</v>
       </c>
       <c r="E6" t="n">
-        <v>108052.8854976938</v>
+        <v>233544.4255887473</v>
       </c>
       <c r="F6" t="n">
-        <v>235407.5522874446</v>
+        <v>260513.3797696816</v>
       </c>
       <c r="G6" t="n">
-        <v>201051.9250837198</v>
+        <v>260513.3797696815</v>
       </c>
       <c r="H6" t="n">
-        <v>260513.3797696813</v>
+        <v>260513.3797696817</v>
       </c>
       <c r="I6" t="n">
-        <v>260513.3797696815</v>
+        <v>260513.3797696814</v>
       </c>
       <c r="J6" t="n">
-        <v>123918.5789637863</v>
+        <v>123918.5789637865</v>
       </c>
       <c r="K6" t="n">
         <v>260513.3797696815</v>
       </c>
       <c r="L6" t="n">
-        <v>260513.3797696814</v>
+        <v>120514.0689049287</v>
       </c>
       <c r="M6" t="n">
-        <v>154218.5677518065</v>
+        <v>238004.1149956342</v>
       </c>
       <c r="N6" t="n">
-        <v>260513.3797696814</v>
+        <v>260513.3797696815</v>
       </c>
       <c r="O6" t="n">
-        <v>235407.5522874444</v>
+        <v>260513.3797696816</v>
       </c>
       <c r="P6" t="n">
-        <v>235407.5522874444</v>
+        <v>260513.3797696816</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>68.95162239439628</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>64.5486989451571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>34.74313514950876</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>180.4845211054439</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>334.7330154719022</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>89.73159075659456</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>88.83360934346942</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>18.19522188379989</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>19.8056831342837</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>184.2211088014065</v>
+        <v>12.64465583764593</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="M3" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>445.0368534430332</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>306.2096305948393</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5650354103359</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793173</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.08941569106788</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>117.5265300387223</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>593.952884094386</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>694.4094223342966</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.4864639210364</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>298.4448860486334</v>
       </c>
       <c r="N15" t="n">
-        <v>309.8405727751573</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>133.6757048211926</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>133.6757048211925</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>341.0311751787576</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>219.0814065520546</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>333.1858818629448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>542.3044286417409</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38032,10 +38034,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>256.64400973792</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>333.1858818629448</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>140.1884960996981</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1554571.608492284</v>
+        <v>1553258.963036704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8063733.725978204</v>
+        <v>8063733.725978206</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>260.6122009875658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>92.39821614919671</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>203.9741790709587</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -910,10 +910,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1065,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1216231871071</v>
+        <v>346.8874108458852</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.3157924738358</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>5.401120299116185</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>87.70488059947972</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2134,13 +2134,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.69551283691951</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>380.3593268106412</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2484,13 +2484,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.45020302297358</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>88.61451326863885</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.1549583480613</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>62.68223391146852</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>65.27530644466593</v>
       </c>
       <c r="U31" t="n">
-        <v>154.0313569259916</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795326</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>25.89026429995027</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>48.24563773262425</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565507</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3435,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>48.20649381210165</v>
+        <v>95.60123434318797</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>245.2379843596716</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.6804894878781</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>68.9584140948168</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3748,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>364.6399937545928</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3909,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>113.1089195615233</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>8.522152635936354</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.1247287958589</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.290917238643778</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>136.1769805884548</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4336,16 +4336,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4524,16 +4524,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1477.832450786617</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>1477.832450786617</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>1014.752890035065</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>683.1217561606078</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>677.0375695142819</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4579,40 +4579,40 @@
         <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>689.3025317846932</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>892.0062696297454</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225775</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502955</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>340.203196935123</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>878.3626980441625</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1236.881458916949</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2013.200049908703</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2766.381066547321</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3410.011922964426</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3939.168620883578</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4260.32962767887</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368435</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4165.605198162535</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>3943.398714109394</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>3686.338222368904</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3686.338222368904</v>
       </c>
       <c r="W8" t="n">
-        <v>3336.500667705388</v>
+        <v>3302.577921504072</v>
       </c>
       <c r="X8" t="n">
-        <v>2935.857269874341</v>
+        <v>3302.577921504072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2554.926337362112</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471286</v>
+        <v>106.7663168471285</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.8305830300019</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>837.2844189208142</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.241509466709</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
         <v>2102.947401955239</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421.742223795061</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6488513567775</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6488513567775</v>
+        <v>844.7635586531317</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6488513567775</v>
+        <v>683.8527435214512</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320425</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.9712265575859</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630425</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725793</v>
+        <v>100.1002748725792</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948173</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -4989,25 +4989,25 @@
         <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1116.975776254216</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>834.1776288003407</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>834.1776288003407</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>834.1776288003407</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="X10" t="n">
-        <v>834.1776288003407</v>
+        <v>1416.693608335501</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.4419301891054</v>
+        <v>1191.957909724266</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F11" t="n">
-        <v>812.8804791700727</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1521950629048</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5083,10 +5083,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5263,16 +5263,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>820.9542857040069</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>596.2185870927716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>1165.980940048674</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>886.9112755575482</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>648.5674134172316</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
         <v>1320.262653899312</v>
@@ -5752,16 +5752,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N20" t="n">
         <v>3127.679677710027</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.433582065768</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>886.6708173828915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460.6501016978888</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C25" t="n">
-        <v>289.5567292596053</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>130.0620845825153</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.429368843485</v>
+        <v>1010.786098472038</v>
       </c>
       <c r="W25" t="n">
-        <v>1111.429368843485</v>
+        <v>1010.786098472038</v>
       </c>
       <c r="X25" t="n">
-        <v>873.0855067031684</v>
+        <v>772.4422363317212</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.3498080919331</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
         <v>2052.715036606428</v>
@@ -6229,7 +6229,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
         <v>1198.623017005979</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.8258582872483</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C28" t="n">
-        <v>324.8258582872483</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1559.327206522111</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1276.529059068235</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1002.643314007757</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>723.5736495166313</v>
       </c>
       <c r="X28" t="n">
-        <v>549.5615568984836</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="Y28" t="n">
-        <v>324.8258582872483</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6466,7 +6466,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6499,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>886.6708173828915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1556.707941337063</v>
       </c>
       <c r="U31" t="n">
-        <v>955.8421396253117</v>
+        <v>1273.909793883187</v>
       </c>
       <c r="V31" t="n">
-        <v>955.8421396253117</v>
+        <v>1000.024048822709</v>
       </c>
       <c r="W31" t="n">
-        <v>676.772475134186</v>
+        <v>720.9543843315835</v>
       </c>
       <c r="X31" t="n">
-        <v>676.772475134186</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
         <v>812.8804791700727</v>
@@ -6694,13 +6694,13 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6721,31 +6721,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,31 +6776,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>1670.858880348135</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.3370701289063</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J34" t="n">
         <v>107.3262470958333</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1324.826325745621</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1042.028178291745</v>
+        <v>1387.517858784692</v>
       </c>
       <c r="V34" t="n">
-        <v>768.1424332312672</v>
+        <v>1113.632113724214</v>
       </c>
       <c r="W34" t="n">
-        <v>489.0727687401416</v>
+        <v>834.5624492330883</v>
       </c>
       <c r="X34" t="n">
-        <v>489.0727687401416</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.3370701289063</v>
+        <v>596.2185870927716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2144.727460069145</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6934,10 +6934,10 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6958,31 +6958,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.91790873751</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7013,28 +7013,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.802819284162</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>1820.802819284162</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.2873592492926</v>
+        <v>689.0651797120009</v>
       </c>
       <c r="C37" t="n">
-        <v>419.1939868110092</v>
+        <v>517.9718072737174</v>
       </c>
       <c r="D37" t="n">
-        <v>419.1939868110092</v>
+        <v>517.9718072737174</v>
       </c>
       <c r="E37" t="n">
-        <v>258.2831716793286</v>
+        <v>357.0609921420369</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J37" t="n">
         <v>107.3262470958333</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V37" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W37" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X37" t="n">
-        <v>590.2873592492926</v>
+        <v>1101.500584717281</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.2873592492926</v>
+        <v>876.7648861060453</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7213,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3790.308655650302</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C40" t="n">
-        <v>3619.215283212019</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.720638534929</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.720638534929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3295.08951264552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1552.987630579335</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>1552.987630579335</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>1552.987630579335</v>
       </c>
       <c r="U40" t="n">
-        <v>4294.114018752663</v>
+        <v>1270.189483125459</v>
       </c>
       <c r="V40" t="n">
-        <v>4294.114018752663</v>
+        <v>996.303738064981</v>
       </c>
       <c r="W40" t="n">
-        <v>4015.044354261538</v>
+        <v>717.2340735738553</v>
       </c>
       <c r="X40" t="n">
-        <v>4015.044354261538</v>
+        <v>478.8902114335386</v>
       </c>
       <c r="Y40" t="n">
-        <v>3790.308655650302</v>
+        <v>254.1545128223033</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7456,7 +7456,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.869447136969</v>
+        <v>698.9939638382053</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.776074698686</v>
+        <v>527.9005913999218</v>
       </c>
       <c r="D43" t="n">
-        <v>3724.281430021596</v>
+        <v>368.4059467228319</v>
       </c>
       <c r="E43" t="n">
-        <v>3563.370614889915</v>
+        <v>207.4951315911513</v>
       </c>
       <c r="F43" t="n">
-        <v>3398.739489000507</v>
+        <v>207.4951315911513</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>207.4951315911513</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>4337.363427183242</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>4328.755192197447</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V43" t="n">
-        <v>4054.869447136969</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.869447136969</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.869447136969</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.869447136969</v>
+        <v>886.6936702322497</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2769.519398860791</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>3469.596718162561</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>3608.383329301262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>3608.383329301262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>4312.340419847156</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3405.093950857723</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C46" t="n">
-        <v>3405.093950857723</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D46" t="n">
-        <v>3405.093950857723</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W46" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.829649468958</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y46" t="n">
-        <v>3405.093950857723</v>
+        <v>691.0787157447054</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,10 +7993,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428705</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8227,7 +8227,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276483</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>457.6255605606092</v>
       </c>
       <c r="M8" t="n">
-        <v>519.8012871361426</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2828090848179</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>191.2399885596099</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10199,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>398.595458917175</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10439,19 +10439,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P33" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>346.553124795057</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>675.0496721821739</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>713.698690859688</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>596.5640636445446</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>197.7527798381155</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>230.5593032197973</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>183.4420070103935</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>113.6869258769811</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>129.1276841407384</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>182.5323743412344</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>76.74473988225778</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,10 +24615,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>174.4710177215964</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,7 +24849,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>171.877945188399</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9388090533455</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>102.5059940158869</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.2629873331146</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>231.7245282467129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>308.555861441229</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.778320818413</v>
+        <v>67.38358028732668</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>4.897397675833872</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>15.46157704653754</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.28731256679805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35.00246108107466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>271.4480133434007</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -26031,13 +26031,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>153.0107897417199</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>86.31136103666816</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281288</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281285</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281289</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281288</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281288</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681653.6184281287</v>
+        <v>681653.6184281284</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681653.6184281285</v>
+        <v>681653.6184281287</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
         <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876339</v>
       </c>
       <c r="E2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="G2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
+        <v>391025.7011723766</v>
+      </c>
+      <c r="I2" t="n">
         <v>391025.7011723769</v>
       </c>
-      <c r="I2" t="n">
-        <v>391025.7011723767</v>
-      </c>
       <c r="J2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.701172377</v>
       </c>
       <c r="K2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="L2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="M2" t="n">
         <v>391025.7011723769</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100685</v>
+        <v>171827.4689100682</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.95418093451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647527</v>
+        <v>139999.3108647526</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404744</v>
+        <v>22509.26477404766</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193745.821255793</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>113911.0406229377</v>
+        <v>113911.0406229379</v>
       </c>
       <c r="E4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
         <v>59647.11115782198</v>
@@ -26441,22 +26441,22 @@
         <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
         <v>59647.11115782197</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520026</v>
+        <v>99001.0713552002</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26499,10 +26499,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="M5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="N5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5712.064960229152</v>
+        <v>5712.064960228941</v>
       </c>
       <c r="C6" t="n">
         <v>180667.574853343</v>
       </c>
       <c r="D6" t="n">
-        <v>55042.88029942731</v>
+        <v>55042.88029942758</v>
       </c>
       <c r="E6" t="n">
-        <v>233544.4255887473</v>
+        <v>233363.8449960979</v>
       </c>
       <c r="F6" t="n">
-        <v>260513.3797696816</v>
+        <v>260332.7991770325</v>
       </c>
       <c r="G6" t="n">
-        <v>260513.3797696815</v>
+        <v>260332.7991770324</v>
       </c>
       <c r="H6" t="n">
-        <v>260513.3797696817</v>
+        <v>260332.7991770323</v>
       </c>
       <c r="I6" t="n">
-        <v>260513.3797696814</v>
+        <v>260332.7991770325</v>
       </c>
       <c r="J6" t="n">
-        <v>123918.5789637865</v>
+        <v>123737.9983711377</v>
       </c>
       <c r="K6" t="n">
-        <v>260513.3797696815</v>
+        <v>260332.7991770325</v>
       </c>
       <c r="L6" t="n">
-        <v>120514.0689049287</v>
+        <v>120333.4883122799</v>
       </c>
       <c r="M6" t="n">
-        <v>238004.1149956342</v>
+        <v>237823.5344029848</v>
       </c>
       <c r="N6" t="n">
-        <v>260513.3797696815</v>
+        <v>260332.7991770324</v>
       </c>
       <c r="O6" t="n">
-        <v>260513.3797696816</v>
+        <v>260332.7991770325</v>
       </c>
       <c r="P6" t="n">
-        <v>260513.3797696816</v>
+        <v>260332.7991770325</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.22156834211</v>
+        <v>1075.221568342109</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720832</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067617</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720834</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720832</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>145.4111437922967</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.7486714606765</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>196.4451115369114</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.8056831342837</v>
+        <v>50.0398954755056</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>123.6446310450776</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -32478,19 +32478,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-1.201113364269831e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.336470047518938e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.358095530124212e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.282411098041085e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.094508202548719e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>362.1401624977644</v>
       </c>
       <c r="M8" t="n">
-        <v>426.5110626790972</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>91.08941569106788</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396342</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209635</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955736</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>650.1321781990957</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698499</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>133.6757048211925</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>461.3739449367926</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>341.0311751787576</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P33" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37387,25 +37387,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>292.2934897922533</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>542.3044286417409</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>140.1884960996981</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
